--- a/Assets/06.Table/BattleContestSpecialExchange.xlsx
+++ b/Assets/06.Table/BattleContestSpecialExchange.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0CEDE3-8E3F-4F31-B713-561F5C0335C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFFC902-ED23-4FA7-AC24-3F1B75124AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BattleContestSpecialExchange" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,6 +199,21 @@
   </si>
   <si>
     <t>비무왕 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopCategory</t>
+  </si>
+  <si>
+    <t>비무신 호연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비무신의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비무신 노리개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -689,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -704,7 +719,7 @@
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -723,9 +738,13 @@
       <c r="F1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
+        <f>ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2">
@@ -743,9 +762,13 @@
       <c r="F2">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
+        <f t="shared" ref="A3:A7" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3">
@@ -763,9 +786,13 @@
       <c r="F3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4">
@@ -782,6 +809,81 @@
       </c>
       <c r="F4">
         <v>30</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1489</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>7277</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>7294</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>70</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
